--- a/collector/FrpTemplateV1.0.xlsx
+++ b/collector/FrpTemplateV1.0.xlsx
@@ -4,18 +4,20 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Cover" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Cover" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Account" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="AccountType" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="ActualData" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="BudgetData" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Company" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="User" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Version" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="MysqlView" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Currency" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="CurrencyRate" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="User" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Version" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="MysqlView" sheetId="11" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24,7 +26,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -60,9 +65,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -390,6 +397,457 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" hidden="1" outlineLevel="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>companycode</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>submittdate</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>accountdate</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>actualorbudget</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>versionname</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>vaild</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>公司编码</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>提交日期</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>会计期间</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>实际数</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>版本ID</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>作废标记</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>43899.13453990681</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>43870</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>V1101-2020-02-09/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>43899.12856988337</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>43870</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>V1102-2020-02-09 03:05:01.930269/17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1105</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>43899.28604241698</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>43870</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>V1105-2020-02-09/60</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>43899.14729218467</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>43870</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>V1106-2020-02-09/44</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>43899.13453990681</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>43870</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>V1101-2020-02-09/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>43899.12856988337</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>43870</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>V1102-2020-02-09 03:05:01.930269/17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1105</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>43899.28604241698</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>43870</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>V1105-2020-02-09/60</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>43899.14729218467</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>43870</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>V1106-2020-02-09/44</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>43899.13453990681</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>43870</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>V1101-2020-02-09/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>43899.12856988337</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>43870</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>V1102-2020-02-09 03:05:01.930269/17</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1105</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>43899.28604241698</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>43870</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>V1105-2020-02-09/60</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>43899.14729218467</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>43870</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>V1106-2020-02-09/44</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" hidden="1" outlineLevel="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>accountname</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>companyname</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>accountdate</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>versionname</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>vaild</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>typename</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>currencyname</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>科目名</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>公司名</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>会计日期</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>版本号</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>有效标记</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>科目类别</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>币种</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -400,7 +858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +910,98 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>应付账款</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>销售费用</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3002</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>销售成本</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3003</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>管理费用</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -463,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +1044,38 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>资产</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>负债</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>费用</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -559,6 +1139,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -622,6 +1203,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -632,7 +1214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,6 +1238,11 @@
           <t>parentcompany</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -673,13 +1260,681 @@
           <t>父级公司</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>本位币</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>山鹰国际马鞍山</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>浙江山鹰</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1103</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>造纸事业部</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1104</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>山鹰国际上海分公司</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1105</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>欧洲事业部</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>北美事业部</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>山鹰国际马鞍山</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>浙江山鹰</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1103</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>造纸事业部</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1104</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>山鹰国际上海分公司</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1105</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>欧洲事业部</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>北美事业部</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>山鹰国际马鞍山</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>浙江山鹰</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1103</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>造纸事业部</t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1104</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>山鹰国际上海分公司</t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1105</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>欧洲事业部</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>北美事业部</t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" hidden="1" outlineLevel="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>currencyname</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>记账币</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EUD</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" hidden="1" outlineLevel="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>originalcur</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>aftercur</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>periodrate</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pointrate</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>currencydate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>原币</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>转化币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>期间汇率</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>即时汇率</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>汇率日期</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>43890</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -748,192 +2003,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" hidden="1" outlineLevel="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>companycode</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>submittdate</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>accountdate</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>actualorbudget</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>versionname</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>vaild</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>公司编码</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>提交日期</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>会计期间</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>实际数</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>版本ID</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>作废标记</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" hidden="1" outlineLevel="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>accountname</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>companyname</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>accountdate</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>versionname</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>vaild</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>typename</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>序号</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>科目名</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金额</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>公司名</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>会计日期</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>版本号</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>有效标记</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>科目类别</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/collector/FrpTemplateV1.0.xlsx
+++ b/collector/FrpTemplateV1.0.xlsx
@@ -385,7 +385,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>填报期间:</t>
+          <t>填报期间jklfdasklsdf:</t>
         </is>
       </c>
     </row>
@@ -408,7 +408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>43899.28604241698</v>
+        <v>43899.30734188399</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>43870</v>
@@ -539,18 +539,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>V1105-2020-02-09/60</t>
+          <t>V1105-2020-02-09/41</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>43899.14729218467</v>
+        <v>43899.28604241698</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>43870</v>
@@ -560,18 +560,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>V1106-2020-02-09/44</t>
+          <t>V1105-2020-02-09/60</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1106</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>43899.13453990681</v>
+        <v>43899.14729218467</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>43870</v>
@@ -581,18 +581,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>V1101-2020-02-09/25</t>
+          <t>V1106-2020-02-09/44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>43899.12856988337</v>
+        <v>43899.13453990681</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>43870</v>
@@ -602,18 +602,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>V1102-2020-02-09 03:05:01.930269/17</t>
+          <t>V1101-2020-02-09/25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>43899.28604241698</v>
+        <v>43899.12856988337</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>43870</v>
@@ -623,18 +623,18 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>V1105-2020-02-09/60</t>
+          <t>V1102-2020-02-09 03:05:01.930269/17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>43899.14729218467</v>
+        <v>43899.30734188399</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>43870</v>
@@ -644,18 +644,18 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>V1106-2020-02-09/44</t>
+          <t>V1105-2020-02-09/41</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>43899.13453990681</v>
+        <v>43899.28604241698</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>43870</v>
@@ -665,18 +665,18 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>V1101-2020-02-09/25</t>
+          <t>V1105-2020-02-09/60</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1106</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>43899.12856988337</v>
+        <v>43899.14729218467</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>43870</v>
@@ -686,18 +686,18 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>V1102-2020-02-09 03:05:01.930269/17</t>
+          <t>V1106-2020-02-09/44</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>43899.28604241698</v>
+        <v>43899.13453990681</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>43870</v>
@@ -707,18 +707,18 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>V1105-2020-02-09/60</t>
+          <t>V1101-2020-02-09/25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>43899.14729218467</v>
+        <v>43899.12856988337</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>43870</v>
@@ -727,6 +727,69 @@
         <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
+        <is>
+          <t>V1102-2020-02-09 03:05:01.930269/17</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1105</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>43899.30734188399</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>43870</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>V1105-2020-02-09/41</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1105</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>43899.28604241698</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>43870</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>V1105-2020-02-09/60</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>43899.14729218467</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>43870</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>V1106-2020-02-09/44</t>
         </is>
